--- a/island.xlsx
+++ b/island.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anderson/Desktop/GBD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/Dengue-Tina-GBD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF979CD-30E8-2D42-B03F-A037F96A2998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57845F3E-E939-FE48-A9C9-A4B9A3B304C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$B$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
   <si>
     <t>location_name</t>
   </si>
@@ -241,6 +247,110 @@
   </si>
   <si>
     <t>Micronesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,12 +374,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,8 +402,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,14 +723,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1">
+        <v>380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1">
+        <v>416</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>320</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>374</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E4EA7A-E88A-EC4A-9E1B-90423B65E681}">
+  <dimension ref="B1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E16" xr:uid="{A5E4EA7A-E88A-EC4A-9E1B-90423B65E681}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
+      <sortCondition ref="D1:D16"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2040992-243E-8947-8DE3-F5FC90602D5C}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
@@ -625,482 +1442,222 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3">
-        <v>380</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6">
-        <v>369</v>
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10">
-        <v>416</v>
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16" xr:uid="{C2040992-243E-8947-8DE3-F5FC90602D5C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+      <sortCondition ref="D1:D16"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>